--- a/ADC/data/ADS1115.xlsx
+++ b/ADC/data/ADS1115.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="5 bzw 3.3 V" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="5V" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,16 +28,16 @@
     <t xml:space="preserve">16-bit</t>
   </si>
   <si>
-    <t xml:space="preserve">U_MM</t>
+    <t xml:space="preserve">U_MM (V)</t>
   </si>
   <si>
-    <t xml:space="preserve">U_ADC</t>
+    <t xml:space="preserve">U_ADC (V)</t>
   </si>
   <si>
     <t xml:space="preserve">Prozent</t>
   </si>
   <si>
-    <t xml:space="preserve">Differenz</t>
+    <t xml:space="preserve">Differenz (V)</t>
   </si>
 </sst>
 </file>
@@ -155,7 +155,7 @@
   <dimension ref="A1:AL1006"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4:D24"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -299,7 +299,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <f aca="false">A4-B4</f>
+        <f aca="false">B4-A4</f>
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
@@ -347,7 +347,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <f aca="false">A5-B5</f>
+        <f aca="false">B5-A5</f>
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
@@ -395,7 +395,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <f aca="false">A6-B6</f>
+        <f aca="false">B6-A6</f>
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
@@ -440,11 +440,11 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="n">
         <f aca="false">(E7/5)*100</f>
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="E7" s="2" t="n">
-        <f aca="false">A7-B7</f>
-        <v>0.001</v>
+        <f aca="false">B7-A7</f>
+        <v>-0.001</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <f aca="false">A8-B8</f>
+        <f aca="false">B8-A8</f>
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <f aca="false">A9-B9</f>
+        <f aca="false">B9-A9</f>
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <f aca="false">A10-B10</f>
+        <f aca="false">B10-A10</f>
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <f aca="false">A11-B11</f>
+        <f aca="false">B11-A11</f>
         <v>0</v>
       </c>
       <c r="F11" s="1"/>
@@ -680,11 +680,11 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="n">
         <f aca="false">(E12/5)*100</f>
-        <v>-0.0199999999999978</v>
+        <v>0.0199999999999978</v>
       </c>
       <c r="E12" s="2" t="n">
-        <f aca="false">A12-B12</f>
-        <v>-0.00099999999999989</v>
+        <f aca="false">B12-A12</f>
+        <v>0.00099999999999989</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -728,11 +728,11 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="n">
         <f aca="false">(E13/5)*100</f>
-        <v>-0.0400000000000045</v>
+        <v>0.0400000000000045</v>
       </c>
       <c r="E13" s="2" t="n">
-        <f aca="false">A13-B13</f>
-        <v>-0.00200000000000022</v>
+        <f aca="false">B13-A13</f>
+        <v>0.00200000000000022</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -776,11 +776,11 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="n">
         <f aca="false">(E14/5)*100</f>
-        <v>-0.0400000000000045</v>
+        <v>0.0400000000000045</v>
       </c>
       <c r="E14" s="2" t="n">
-        <f aca="false">A14-B14</f>
-        <v>-0.00200000000000022</v>
+        <f aca="false">B14-A14</f>
+        <v>0.00200000000000022</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -824,11 +824,11 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="n">
         <f aca="false">(E15/5)*100</f>
-        <v>-0.0600000000000023</v>
+        <v>0.0600000000000023</v>
       </c>
       <c r="E15" s="2" t="n">
-        <f aca="false">A15-B15</f>
-        <v>-0.00300000000000011</v>
+        <f aca="false">B15-A15</f>
+        <v>0.00300000000000011</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -872,11 +872,11 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="n">
         <f aca="false">(E16/5)*100</f>
-        <v>-0.0399999999999956</v>
+        <v>0.0399999999999956</v>
       </c>
       <c r="E16" s="2" t="n">
-        <f aca="false">A16-B16</f>
-        <v>-0.00199999999999978</v>
+        <f aca="false">B16-A16</f>
+        <v>0.00199999999999978</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -920,11 +920,11 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="n">
         <f aca="false">(E17/5)*100</f>
-        <v>-0.0800000000000001</v>
+        <v>0.0800000000000001</v>
       </c>
       <c r="E17" s="2" t="n">
-        <f aca="false">A17-B17</f>
-        <v>-0.004</v>
+        <f aca="false">B17-A17</f>
+        <v>0.004</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -968,11 +968,11 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="n">
         <f aca="false">(E18/5)*100</f>
-        <v>-0.0400000000000134</v>
+        <v>0.0400000000000134</v>
       </c>
       <c r="E18" s="2" t="n">
-        <f aca="false">A18-B18</f>
-        <v>-0.00200000000000067</v>
+        <f aca="false">B18-A18</f>
+        <v>0.00200000000000067</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1016,11 +1016,11 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="n">
         <f aca="false">(E19/5)*100</f>
-        <v>0.0600000000000023</v>
+        <v>-0.0600000000000023</v>
       </c>
       <c r="E19" s="2" t="n">
-        <f aca="false">A19-B19</f>
-        <v>0.00300000000000011</v>
+        <f aca="false">B19-A19</f>
+        <v>-0.00300000000000011</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1064,11 +1064,11 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="n">
         <f aca="false">(E20/5)*100</f>
-        <v>-0.0399999999999956</v>
+        <v>0.0399999999999956</v>
       </c>
       <c r="E20" s="2" t="n">
-        <f aca="false">A20-B20</f>
-        <v>-0.00199999999999978</v>
+        <f aca="false">B20-A20</f>
+        <v>0.00199999999999978</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1112,11 +1112,11 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="n">
         <f aca="false">(E21/5)*100</f>
-        <v>-0.0799999999999912</v>
+        <v>0.0799999999999912</v>
       </c>
       <c r="E21" s="2" t="n">
-        <f aca="false">A21-B21</f>
-        <v>-0.00399999999999956</v>
+        <f aca="false">B21-A21</f>
+        <v>0.00399999999999956</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1160,11 +1160,11 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="n">
         <f aca="false">(E22/5)*100</f>
-        <v>-0.0799999999999912</v>
+        <v>0.0799999999999912</v>
       </c>
       <c r="E22" s="2" t="n">
-        <f aca="false">A22-B22</f>
-        <v>-0.00399999999999956</v>
+        <f aca="false">B22-A22</f>
+        <v>0.00399999999999956</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1208,11 +1208,11 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="n">
         <f aca="false">(E23/5)*100</f>
-        <v>-0.0799999999999912</v>
+        <v>0.0799999999999912</v>
       </c>
       <c r="E23" s="2" t="n">
-        <f aca="false">A23-B23</f>
-        <v>-0.00399999999999956</v>
+        <f aca="false">B23-A23</f>
+        <v>0.00399999999999956</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1256,11 +1256,11 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="n">
         <f aca="false">(E24/5)*100</f>
-        <v>-0.080000000000009</v>
+        <v>0.080000000000009</v>
       </c>
       <c r="E24" s="2" t="n">
-        <f aca="false">A24-B24</f>
-        <v>-0.00400000000000045</v>
+        <f aca="false">B24-A24</f>
+        <v>0.00400000000000045</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
